--- a/docs/simonRPG.xlsx
+++ b/docs/simonRPG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JURY-03\Desktop\dev\jdr2d\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-06\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326BC09B-3A7E-4D09-A9BB-9385C7CFDC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A90D0B6-5278-4E3A-B156-37B0BB8AB1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{CE87557A-F38C-4B0E-91DF-847348C0A2B3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE87557A-F38C-4B0E-91DF-847348C0A2B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -339,67 +339,7 @@
     <cellStyle name="20 % - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -733,7 +673,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -944,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AD8A5C-AC34-4EFB-9D4F-46BB75576D03}">
   <dimension ref="G6:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
@@ -1847,12 +1787,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:M22">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>3.501</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16:AB22">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>12.26</formula>
     </cfRule>
   </conditionalFormatting>
